--- a/inst/extdata/FrocData.xlsx
+++ b/inst/extdata/FrocData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="12">
   <si>
     <t>CaseID</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Paradigm</t>
-  </si>
-  <si>
-    <t>Design</t>
   </si>
   <si>
     <t>crossed</t>
@@ -111,8 +108,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -150,19 +149,21 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -21030,7 +21031,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:F243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -21046,7 +21047,7 @@
     <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21065,11 +21066,8 @@
       <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -21080,109 +21078,108 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -21193,14 +21190,14 @@
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -21211,14 +21208,14 @@
         <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -21229,14 +21226,14 @@
         <v>1</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -21247,14 +21244,14 @@
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -21265,14 +21262,14 @@
         <v>1</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -21283,14 +21280,14 @@
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -21301,13 +21298,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -21318,13 +21315,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -21335,10 +21332,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -21352,10 +21349,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -21369,10 +21366,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -21386,10 +21383,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -21403,10 +21400,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -21420,10 +21417,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -21437,10 +21434,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -21454,10 +21451,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -21471,10 +21468,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -21488,10 +21485,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -21505,10 +21502,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -21522,10 +21519,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -21539,10 +21536,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -21556,10 +21553,10 @@
         <v>1</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -21573,10 +21570,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -21590,10 +21587,10 @@
         <v>1</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -21607,10 +21604,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -21624,10 +21621,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -21641,10 +21638,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -21658,10 +21655,10 @@
         <v>1</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -21675,10 +21672,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -21692,10 +21689,10 @@
         <v>1</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -21709,10 +21706,10 @@
         <v>1</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -21726,10 +21723,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -21743,10 +21740,10 @@
         <v>1</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -21760,10 +21757,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -21777,10 +21774,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -21794,10 +21791,10 @@
         <v>1</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -21811,10 +21808,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -21828,10 +21825,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -21845,10 +21842,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -21862,10 +21859,10 @@
         <v>1</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -21879,10 +21876,10 @@
         <v>1</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -21896,10 +21893,10 @@
         <v>1</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -21913,10 +21910,10 @@
         <v>1</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -21930,10 +21927,10 @@
         <v>1</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -21947,10 +21944,10 @@
         <v>1</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -21964,10 +21961,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -21981,10 +21978,10 @@
         <v>1</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -21998,10 +21995,10 @@
         <v>1</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -22015,10 +22012,10 @@
         <v>1</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -22032,10 +22029,10 @@
         <v>0.5</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -22049,10 +22046,10 @@
         <v>0.5</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -22066,10 +22063,10 @@
         <v>0.5</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -22083,10 +22080,10 @@
         <v>0.5</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -22100,10 +22097,10 @@
         <v>1</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -22117,10 +22114,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -22134,10 +22131,10 @@
         <v>0.5</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -22151,10 +22148,10 @@
         <v>0.5</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -22168,10 +22165,10 @@
         <v>1</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -22185,10 +22182,10 @@
         <v>1</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -22202,10 +22199,10 @@
         <v>1</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -22219,10 +22216,10 @@
         <v>1</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -22236,10 +22233,10 @@
         <v>1</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -22253,10 +22250,10 @@
         <v>1</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -22270,10 +22267,10 @@
         <v>1</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -22287,10 +22284,10 @@
         <v>1</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -22304,10 +22301,10 @@
         <v>0.5</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -22321,10 +22318,10 @@
         <v>0.5</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -22338,10 +22335,10 @@
         <v>0.5</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -22355,10 +22352,10 @@
         <v>0.5</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -22372,10 +22369,10 @@
         <v>1</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -22389,10 +22386,10 @@
         <v>1</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -22406,10 +22403,10 @@
         <v>1</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -22423,10 +22420,10 @@
         <v>0.5</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -22440,10 +22437,10 @@
         <v>0.5</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -22457,10 +22454,10 @@
         <v>0.5</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -22474,10 +22471,10 @@
         <v>0.5</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -22491,10 +22488,10 @@
         <v>0.5</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -22508,10 +22505,10 @@
         <v>0.5</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -22525,10 +22522,10 @@
         <v>0.5</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -22542,10 +22539,10 @@
         <v>0.5</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -22559,10 +22556,10 @@
         <v>0.5</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -22576,10 +22573,10 @@
         <v>0.5</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -22593,10 +22590,10 @@
         <v>0.5</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -22610,10 +22607,10 @@
         <v>0.5</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -22627,10 +22624,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -22644,10 +22641,10 @@
         <v>0.5</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -22661,10 +22658,10 @@
         <v>0.5</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -22678,10 +22675,10 @@
         <v>0.5</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -22695,10 +22692,10 @@
         <v>0.5</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -22712,10 +22709,10 @@
         <v>0.5</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -22729,10 +22726,10 @@
         <v>0.5</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -22746,10 +22743,10 @@
         <v>0.5</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -22763,10 +22760,10 @@
         <v>0.5</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -22780,10 +22777,10 @@
         <v>0.33</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -22797,10 +22794,10 @@
         <v>0.33</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -22814,10 +22811,10 @@
         <v>0.33</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -22831,10 +22828,10 @@
         <v>0.5</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -22848,10 +22845,10 @@
         <v>0.5</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -22865,10 +22862,10 @@
         <v>0.5</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -22882,10 +22879,10 @@
         <v>0.5</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -22899,10 +22896,10 @@
         <v>0.5</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -22916,10 +22913,10 @@
         <v>0.5</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -22933,10 +22930,10 @@
         <v>0.5</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -22950,10 +22947,10 @@
         <v>0.5</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -22967,10 +22964,10 @@
         <v>0.5</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -22984,10 +22981,10 @@
         <v>0.5</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -23001,10 +22998,10 @@
         <v>0.33</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -23018,10 +23015,10 @@
         <v>0.33</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -23035,10 +23032,10 @@
         <v>0.33</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -23052,10 +23049,10 @@
         <v>0.33</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -23069,10 +23066,10 @@
         <v>0.33</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -23086,10 +23083,10 @@
         <v>0.33</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -23103,10 +23100,10 @@
         <v>0.33</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -23120,10 +23117,10 @@
         <v>0.33</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -23137,10 +23134,10 @@
         <v>0.33</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -23154,10 +23151,10 @@
         <v>0.33</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -23171,10 +23168,10 @@
         <v>0.33</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -23188,10 +23185,10 @@
         <v>0.33</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -23205,10 +23202,10 @@
         <v>0.33</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -23222,10 +23219,10 @@
         <v>0.33</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -23239,10 +23236,10 @@
         <v>0.33</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -23256,10 +23253,10 @@
         <v>0.33</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -23273,10 +23270,10 @@
         <v>0.33</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -23290,10 +23287,10 @@
         <v>0.33</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -23307,10 +23304,10 @@
         <v>0.33</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -23324,10 +23321,10 @@
         <v>0.33</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -23341,10 +23338,10 @@
         <v>0.33</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -23358,10 +23355,10 @@
         <v>0.33</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -23375,10 +23372,10 @@
         <v>0.33</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -23392,10 +23389,10 @@
         <v>0.33</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -23409,10 +23406,10 @@
         <v>0.33</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -23426,10 +23423,10 @@
         <v>0.33</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -23443,10 +23440,10 @@
         <v>0.33</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -23460,10 +23457,10 @@
         <v>0.33</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -23477,10 +23474,10 @@
         <v>0.33</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -23494,10 +23491,10 @@
         <v>0.33</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -23511,10 +23508,10 @@
         <v>0</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -23528,10 +23525,10 @@
         <v>0</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -23545,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -23562,10 +23559,10 @@
         <v>0</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -23579,10 +23576,10 @@
         <v>0</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -23596,10 +23593,10 @@
         <v>0</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -23613,10 +23610,10 @@
         <v>0</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -23630,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -23647,10 +23644,10 @@
         <v>0</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -23664,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -23681,10 +23678,10 @@
         <v>0</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -23698,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -23715,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -23732,10 +23729,10 @@
         <v>0</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -23749,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -23766,10 +23763,10 @@
         <v>0</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -23783,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -23800,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -23817,10 +23814,10 @@
         <v>0</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -23834,10 +23831,10 @@
         <v>0</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -23851,10 +23848,10 @@
         <v>0</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -23868,10 +23865,10 @@
         <v>0</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -23885,10 +23882,10 @@
         <v>0</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -23902,10 +23899,10 @@
         <v>0</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -23919,10 +23916,10 @@
         <v>0</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -23936,10 +23933,10 @@
         <v>0</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -23953,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -23970,10 +23967,10 @@
         <v>0</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -23987,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -24004,10 +24001,10 @@
         <v>0</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -24021,10 +24018,10 @@
         <v>0</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -24038,10 +24035,10 @@
         <v>0</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -24055,10 +24052,10 @@
         <v>0</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -24072,10 +24069,10 @@
         <v>0</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -24089,10 +24086,10 @@
         <v>0</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -24106,10 +24103,10 @@
         <v>0</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -24123,10 +24120,10 @@
         <v>0</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -24140,10 +24137,10 @@
         <v>0</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -24157,10 +24154,10 @@
         <v>0</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -24174,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -24191,10 +24188,10 @@
         <v>0</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -24208,10 +24205,10 @@
         <v>0</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -24225,10 +24222,10 @@
         <v>0</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -24242,10 +24239,10 @@
         <v>0</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -24259,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -24276,10 +24273,10 @@
         <v>0</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -24293,10 +24290,10 @@
         <v>0</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -24310,10 +24307,10 @@
         <v>0</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -24327,10 +24324,10 @@
         <v>0</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -24344,10 +24341,10 @@
         <v>0</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -24361,10 +24358,10 @@
         <v>0</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -24378,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -24395,10 +24392,10 @@
         <v>0</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -24412,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -24429,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -24446,10 +24443,10 @@
         <v>0</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -24463,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -24480,10 +24477,10 @@
         <v>0</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -24497,10 +24494,10 @@
         <v>0</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -24514,10 +24511,10 @@
         <v>0</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -24531,10 +24528,10 @@
         <v>0</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -24548,10 +24545,10 @@
         <v>0</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -24565,10 +24562,10 @@
         <v>0</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -24582,10 +24579,10 @@
         <v>0</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -24599,10 +24596,10 @@
         <v>0</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -24616,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -24633,10 +24630,10 @@
         <v>0</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -24650,10 +24647,10 @@
         <v>0</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -24667,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -24684,10 +24681,10 @@
         <v>0</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -24701,10 +24698,10 @@
         <v>0</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -24718,10 +24715,10 @@
         <v>0</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -24735,10 +24732,10 @@
         <v>0</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -24752,10 +24749,10 @@
         <v>0</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -24769,10 +24766,10 @@
         <v>0</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -24786,10 +24783,10 @@
         <v>0</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -24803,10 +24800,10 @@
         <v>0</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -24820,10 +24817,10 @@
         <v>0</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -24837,10 +24834,10 @@
         <v>0</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -24854,10 +24851,10 @@
         <v>0</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -24871,10 +24868,10 @@
         <v>0</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -24888,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -24905,10 +24902,10 @@
         <v>0</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -24922,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -24939,10 +24936,10 @@
         <v>0</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -24956,10 +24953,10 @@
         <v>0</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -24973,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E230" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -24990,10 +24987,10 @@
         <v>0</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -25007,10 +25004,10 @@
         <v>0</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -25024,10 +25021,10 @@
         <v>0</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E233" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -25041,10 +25038,10 @@
         <v>0</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -25058,10 +25055,10 @@
         <v>0</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -25075,10 +25072,10 @@
         <v>0</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -25092,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -25109,10 +25106,10 @@
         <v>0</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -25126,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -25143,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E240" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -25160,10 +25157,10 @@
         <v>0</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -25177,10 +25174,10 @@
         <v>0</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -25194,10 +25191,10 @@
         <v>0</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/FrocData.xlsx
+++ b/inst/extdata/FrocData.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6B5588-A720-8943-8333-DD256AE45B1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3611379F-CEA6-E94D-874B-0AE6B9E5AF9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10700" yWindow="460" windowWidth="14860" windowHeight="15820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="660" windowWidth="14860" windowHeight="15820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="3" r:id="rId1"/>
     <sheet name="FP" sheetId="2" r:id="rId2"/>
     <sheet name="Truth" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -21048,7 +21056,7 @@
   <dimension ref="A1:F243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/inst/extdata/FrocData.xlsx
+++ b/inst/extdata/FrocData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4749F2C4-C143-7949-AD52-101C6E8CED87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1097B511-B3AC-8549-88F0-6C4BA52852A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="660" windowWidth="33940" windowHeight="21540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="660" windowWidth="33940" windowHeight="21540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="3" r:id="rId1"/>
@@ -22,9 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -61,9 +59,6 @@
     <t>Paradigm</t>
   </si>
   <si>
-    <t>crossed</t>
-  </si>
-  <si>
     <t>4,5</t>
   </si>
   <si>
@@ -71,6 +66,9 @@
   </si>
   <si>
     <t>FROC</t>
+  </si>
+  <si>
+    <t>FCTRL</t>
   </si>
 </sst>
 </file>
@@ -13071,7 +13069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A121" zoomScale="150" workbookViewId="0">
       <selection activeCell="A121" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -21051,8 +21049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F243"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21096,13 +21094,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -21116,13 +21114,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -21136,10 +21134,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4"/>
     </row>
@@ -21154,10 +21152,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5"/>
     </row>
@@ -21172,10 +21170,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6"/>
     </row>
@@ -21190,10 +21188,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7"/>
     </row>
@@ -21208,10 +21206,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8"/>
     </row>
@@ -21226,10 +21224,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9"/>
     </row>
@@ -21244,10 +21242,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10"/>
     </row>
@@ -21262,10 +21260,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11"/>
     </row>
@@ -21280,10 +21278,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12"/>
     </row>
@@ -21298,10 +21296,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13"/>
     </row>
@@ -21316,10 +21314,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -21333,10 +21331,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -21350,10 +21348,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -21367,10 +21365,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -21384,10 +21382,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -21401,10 +21399,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -21418,10 +21416,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -21435,10 +21433,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -21452,10 +21450,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -21469,10 +21467,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -21486,10 +21484,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -21503,10 +21501,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -21520,10 +21518,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -21537,10 +21535,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -21554,10 +21552,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -21571,10 +21569,10 @@
         <v>1</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -21588,10 +21586,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -21605,10 +21603,10 @@
         <v>1</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -21622,10 +21620,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -21639,10 +21637,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -21656,10 +21654,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -21673,10 +21671,10 @@
         <v>1</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -21690,10 +21688,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -21707,10 +21705,10 @@
         <v>1</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -21724,10 +21722,10 @@
         <v>1</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -21741,10 +21739,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -21758,10 +21756,10 @@
         <v>1</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -21775,10 +21773,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -21792,10 +21790,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
@@ -21809,10 +21807,10 @@
         <v>1</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
@@ -21826,10 +21824,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
@@ -21843,10 +21841,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
@@ -21860,10 +21858,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
@@ -21877,10 +21875,10 @@
         <v>1</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
@@ -21894,10 +21892,10 @@
         <v>1</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
@@ -21911,10 +21909,10 @@
         <v>1</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
@@ -21928,10 +21926,10 @@
         <v>1</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
@@ -21945,10 +21943,10 @@
         <v>1</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
@@ -21962,10 +21960,10 @@
         <v>1</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
@@ -21979,10 +21977,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
@@ -21996,10 +21994,10 @@
         <v>1</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
@@ -22013,10 +22011,10 @@
         <v>1</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
@@ -22030,10 +22028,10 @@
         <v>1</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
@@ -22047,10 +22045,10 @@
         <v>0.5</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
@@ -22064,10 +22062,10 @@
         <v>0.5</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
@@ -22081,10 +22079,10 @@
         <v>0.5</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
@@ -22098,10 +22096,10 @@
         <v>0.5</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
@@ -22115,10 +22113,10 @@
         <v>1</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
@@ -22132,10 +22130,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
@@ -22149,10 +22147,10 @@
         <v>0.5</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
@@ -22166,10 +22164,10 @@
         <v>0.5</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
@@ -22183,10 +22181,10 @@
         <v>1</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
@@ -22200,10 +22198,10 @@
         <v>1</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
@@ -22217,10 +22215,10 @@
         <v>1</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
@@ -22234,10 +22232,10 @@
         <v>1</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
@@ -22251,10 +22249,10 @@
         <v>1</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
@@ -22268,10 +22266,10 @@
         <v>1</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
@@ -22285,10 +22283,10 @@
         <v>1</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
@@ -22302,10 +22300,10 @@
         <v>1</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
@@ -22319,10 +22317,10 @@
         <v>0.5</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
@@ -22336,10 +22334,10 @@
         <v>0.5</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
@@ -22353,10 +22351,10 @@
         <v>0.5</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
@@ -22370,10 +22368,10 @@
         <v>0.5</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
@@ -22387,10 +22385,10 @@
         <v>1</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
@@ -22404,10 +22402,10 @@
         <v>1</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
@@ -22421,10 +22419,10 @@
         <v>1</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
@@ -22438,10 +22436,10 @@
         <v>0.5</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
@@ -22455,10 +22453,10 @@
         <v>0.5</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
@@ -22472,10 +22470,10 @@
         <v>0.5</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
@@ -22489,10 +22487,10 @@
         <v>0.5</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
@@ -22506,10 +22504,10 @@
         <v>0.5</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
@@ -22523,10 +22521,10 @@
         <v>0.5</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
@@ -22540,10 +22538,10 @@
         <v>0.5</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
@@ -22557,10 +22555,10 @@
         <v>0.5</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
@@ -22574,10 +22572,10 @@
         <v>0.5</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
@@ -22591,10 +22589,10 @@
         <v>0.5</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
@@ -22608,10 +22606,10 @@
         <v>0.5</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
@@ -22625,10 +22623,10 @@
         <v>0.5</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
@@ -22642,10 +22640,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
@@ -22659,10 +22657,10 @@
         <v>0.5</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
@@ -22676,10 +22674,10 @@
         <v>0.5</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
@@ -22693,10 +22691,10 @@
         <v>0.5</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
@@ -22710,10 +22708,10 @@
         <v>0.5</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
@@ -22727,10 +22725,10 @@
         <v>0.5</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
@@ -22744,10 +22742,10 @@
         <v>0.5</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
@@ -22761,10 +22759,10 @@
         <v>0.5</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
@@ -22778,10 +22776,10 @@
         <v>0.5</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
@@ -22795,10 +22793,10 @@
         <v>0.33</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
@@ -22812,10 +22810,10 @@
         <v>0.33</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
@@ -22829,10 +22827,10 @@
         <v>0.33</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
@@ -22846,10 +22844,10 @@
         <v>0.5</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
@@ -22863,10 +22861,10 @@
         <v>0.5</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
@@ -22880,10 +22878,10 @@
         <v>0.5</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
@@ -22897,10 +22895,10 @@
         <v>0.5</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
@@ -22914,10 +22912,10 @@
         <v>0.5</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
@@ -22931,10 +22929,10 @@
         <v>0.5</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
@@ -22948,10 +22946,10 @@
         <v>0.5</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
@@ -22965,10 +22963,10 @@
         <v>0.5</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
@@ -22982,10 +22980,10 @@
         <v>0.5</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
@@ -22999,10 +22997,10 @@
         <v>0.5</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
@@ -23016,10 +23014,10 @@
         <v>0.33</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
@@ -23033,10 +23031,10 @@
         <v>0.33</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
@@ -23050,10 +23048,10 @@
         <v>0.33</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
@@ -23067,10 +23065,10 @@
         <v>0.33</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
@@ -23084,10 +23082,10 @@
         <v>0.33</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
@@ -23101,10 +23099,10 @@
         <v>0.33</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
@@ -23118,10 +23116,10 @@
         <v>0.33</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
@@ -23135,10 +23133,10 @@
         <v>0.33</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
@@ -23152,10 +23150,10 @@
         <v>0.33</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
@@ -23169,10 +23167,10 @@
         <v>0.33</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
@@ -23186,10 +23184,10 @@
         <v>0.33</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
@@ -23203,10 +23201,10 @@
         <v>0.33</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
@@ -23220,10 +23218,10 @@
         <v>0.33</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
@@ -23237,10 +23235,10 @@
         <v>0.33</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
@@ -23254,10 +23252,10 @@
         <v>0.33</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
@@ -23271,10 +23269,10 @@
         <v>0.33</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
@@ -23288,10 +23286,10 @@
         <v>0.33</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
@@ -23305,10 +23303,10 @@
         <v>0.33</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
@@ -23322,10 +23320,10 @@
         <v>0.33</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.15">
@@ -23339,10 +23337,10 @@
         <v>0.33</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.15">
@@ -23356,10 +23354,10 @@
         <v>0.33</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
@@ -23373,10 +23371,10 @@
         <v>0.33</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.15">
@@ -23390,10 +23388,10 @@
         <v>0.33</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
@@ -23407,10 +23405,10 @@
         <v>0.33</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.15">
@@ -23424,10 +23422,10 @@
         <v>0.33</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.15">
@@ -23441,10 +23439,10 @@
         <v>0.33</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
@@ -23458,10 +23456,10 @@
         <v>0.33</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
@@ -23475,10 +23473,10 @@
         <v>0.33</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.15">
@@ -23492,10 +23490,10 @@
         <v>0.33</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
@@ -23509,10 +23507,10 @@
         <v>0.33</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.15">
@@ -23526,10 +23524,10 @@
         <v>0</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.15">
@@ -23543,10 +23541,10 @@
         <v>0</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
@@ -23560,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
@@ -23577,10 +23575,10 @@
         <v>0</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.15">
@@ -23594,10 +23592,10 @@
         <v>0</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
@@ -23611,10 +23609,10 @@
         <v>0</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
@@ -23628,10 +23626,10 @@
         <v>0</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
@@ -23645,10 +23643,10 @@
         <v>0</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
@@ -23662,10 +23660,10 @@
         <v>0</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
@@ -23679,10 +23677,10 @@
         <v>0</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
@@ -23696,10 +23694,10 @@
         <v>0</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
@@ -23713,10 +23711,10 @@
         <v>0</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
@@ -23730,10 +23728,10 @@
         <v>0</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
@@ -23747,10 +23745,10 @@
         <v>0</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
@@ -23764,10 +23762,10 @@
         <v>0</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
@@ -23781,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.15">
@@ -23798,10 +23796,10 @@
         <v>0</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.15">
@@ -23815,10 +23813,10 @@
         <v>0</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
@@ -23832,10 +23830,10 @@
         <v>0</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
@@ -23849,10 +23847,10 @@
         <v>0</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
@@ -23866,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
@@ -23883,10 +23881,10 @@
         <v>0</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.15">
@@ -23900,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.15">
@@ -23917,10 +23915,10 @@
         <v>0</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.15">
@@ -23934,10 +23932,10 @@
         <v>0</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
@@ -23951,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.15">
@@ -23968,10 +23966,10 @@
         <v>0</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.15">
@@ -23985,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
@@ -24002,10 +24000,10 @@
         <v>0</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.15">
@@ -24019,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.15">
@@ -24036,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.15">
@@ -24053,10 +24051,10 @@
         <v>0</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.15">
@@ -24070,10 +24068,10 @@
         <v>0</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
@@ -24087,10 +24085,10 @@
         <v>0</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
@@ -24104,10 +24102,10 @@
         <v>0</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
@@ -24121,10 +24119,10 @@
         <v>0</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
@@ -24138,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
@@ -24155,10 +24153,10 @@
         <v>0</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
@@ -24172,10 +24170,10 @@
         <v>0</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
@@ -24189,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
@@ -24206,10 +24204,10 @@
         <v>0</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
@@ -24223,10 +24221,10 @@
         <v>0</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.15">
@@ -24240,10 +24238,10 @@
         <v>0</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
@@ -24257,10 +24255,10 @@
         <v>0</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.15">
@@ -24274,10 +24272,10 @@
         <v>0</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.15">
@@ -24291,10 +24289,10 @@
         <v>0</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.15">
@@ -24308,10 +24306,10 @@
         <v>0</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.15">
@@ -24325,10 +24323,10 @@
         <v>0</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.15">
@@ -24342,10 +24340,10 @@
         <v>0</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.15">
@@ -24359,10 +24357,10 @@
         <v>0</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.15">
@@ -24376,10 +24374,10 @@
         <v>0</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.15">
@@ -24393,10 +24391,10 @@
         <v>0</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.15">
@@ -24410,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.15">
@@ -24427,10 +24425,10 @@
         <v>0</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.15">
@@ -24444,10 +24442,10 @@
         <v>0</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.15">
@@ -24461,10 +24459,10 @@
         <v>0</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.15">
@@ -24478,10 +24476,10 @@
         <v>0</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.15">
@@ -24495,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.15">
@@ -24512,10 +24510,10 @@
         <v>0</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.15">
@@ -24529,10 +24527,10 @@
         <v>0</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.15">
@@ -24546,10 +24544,10 @@
         <v>0</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.15">
@@ -24563,10 +24561,10 @@
         <v>0</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.15">
@@ -24580,10 +24578,10 @@
         <v>0</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.15">
@@ -24597,10 +24595,10 @@
         <v>0</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.15">
@@ -24614,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.15">
@@ -24631,10 +24629,10 @@
         <v>0</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.15">
@@ -24648,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.15">
@@ -24665,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.15">
@@ -24682,10 +24680,10 @@
         <v>0</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.15">
@@ -24699,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.15">
@@ -24716,10 +24714,10 @@
         <v>0</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.15">
@@ -24733,10 +24731,10 @@
         <v>0</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.15">
@@ -24750,10 +24748,10 @@
         <v>0</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.15">
@@ -24767,10 +24765,10 @@
         <v>0</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.15">
@@ -24784,10 +24782,10 @@
         <v>0</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.15">
@@ -24801,10 +24799,10 @@
         <v>0</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.15">
@@ -24818,10 +24816,10 @@
         <v>0</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.15">
@@ -24835,10 +24833,10 @@
         <v>0</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.15">
@@ -24852,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.15">
@@ -24869,10 +24867,10 @@
         <v>0</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.15">
@@ -24886,10 +24884,10 @@
         <v>0</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.15">
@@ -24903,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.15">
@@ -24920,10 +24918,10 @@
         <v>0</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.15">
@@ -24937,10 +24935,10 @@
         <v>0</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.15">
@@ -24954,10 +24952,10 @@
         <v>0</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.15">
@@ -24971,10 +24969,10 @@
         <v>0</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.15">
@@ -24988,10 +24986,10 @@
         <v>0</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.15">
@@ -25005,10 +25003,10 @@
         <v>0</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.15">
@@ -25022,10 +25020,10 @@
         <v>0</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.15">
@@ -25039,10 +25037,10 @@
         <v>0</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.15">
@@ -25056,10 +25054,10 @@
         <v>0</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.15">
@@ -25073,10 +25071,10 @@
         <v>0</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.15">
@@ -25090,10 +25088,10 @@
         <v>0</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.15">
@@ -25107,10 +25105,10 @@
         <v>0</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.15">
@@ -25124,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.15">
@@ -25141,10 +25139,10 @@
         <v>0</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.15">
@@ -25158,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.15">
@@ -25175,10 +25173,10 @@
         <v>0</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.15">
@@ -25192,10 +25190,10 @@
         <v>0</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.15">
@@ -25209,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
